--- a/payments.xlsx
+++ b/payments.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\PycharmProjects\bots\Пантера\aa2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -46,13 +51,16 @@
   </si>
   <si>
     <t>4048415033910031</t>
+  </si>
+  <si>
+    <t>Litecoin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -182,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -359,29 +367,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,39 +400,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5</v>
       </c>
     </row>

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Litecoin</t>
+  </si>
+  <si>
+    <t>MFsJqCD2vh5DXVs4sBeqH1rQM7N6qWxzjJ</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +411,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\PycharmProjects\bots\Пантера\aa2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,41 +30,48 @@
     <t>SIM</t>
   </si>
   <si>
-    <t>1K58xGp3vzTgGC1JeQsmoTfXP3zq4TdA4S</t>
-  </si>
-  <si>
     <t>Оплата с баланса</t>
   </si>
   <si>
     <t>+79775752135</t>
   </si>
   <si>
-    <t>4048415027506852</t>
-  </si>
-  <si>
-    <t>4048415033748878</t>
-  </si>
-  <si>
-    <t>4048415033910031</t>
-  </si>
-  <si>
     <t>Litecoin</t>
   </si>
   <si>
-    <t>MFsJqCD2vh5DXVs4sBeqH1rQM7N6qWxzjJ</t>
+    <t>4048415041393584</t>
+  </si>
+  <si>
+    <t>4048415002254353</t>
+  </si>
+  <si>
+    <t>4048415042013231</t>
+  </si>
+  <si>
+    <t>MBhv8ZvV1TGotH8BmiuEtHzYVCAZpLcr3U</t>
+  </si>
+  <si>
+    <t>1HGu34ZGUn5QrjWf2an3xwYoGuFmYQMZoQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,12 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,7 +384,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,19 +402,19 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -422,13 +425,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -439,12 +442,12 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>5</v>

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -33,9 +33,6 @@
     <t>Оплата с баланса</t>
   </si>
   <si>
-    <t>+79775752135</t>
-  </si>
-  <si>
     <t>Litecoin</t>
   </si>
   <si>
@@ -48,10 +45,13 @@
     <t>4048415042013231</t>
   </si>
   <si>
-    <t>MBhv8ZvV1TGotH8BmiuEtHzYVCAZpLcr3U</t>
-  </si>
-  <si>
-    <t>1HGu34ZGUn5QrjWf2an3xwYoGuFmYQMZoQ</t>
+    <t>1LA5iwzq3KA8cPimR7MoZmcfT3g3e6p5Uj</t>
+  </si>
+  <si>
+    <t>MKg3EPNarqiLa1Yv9rvBRZJfVhC9snLHyF</t>
+  </si>
+  <si>
+    <t>недоступен</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,12 +403,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -425,13 +425,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
